--- a/Descargas/R15_Juzgado De Garantia De Colina_Terminos Por Rol_2020-Octubre.xlsx
+++ b/Descargas/R15_Juzgado De Garantia De Colina_Terminos Por Rol_2020-Octubre.xlsx
@@ -242,7 +242,7 @@
         </is>
       </c>
       <c r="C3" s="65">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4">
@@ -272,7 +272,7 @@
         </is>
       </c>
       <c r="C5" s="65">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -317,7 +317,7 @@
         </is>
       </c>
       <c r="C8" s="65">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -332,7 +332,7 @@
         </is>
       </c>
       <c r="C9" s="65">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -347,7 +347,7 @@
         </is>
       </c>
       <c r="C10" s="65">
-        <v>64</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11">
@@ -358,41 +358,11 @@
       </c>
       <c t="inlineStr" r="B11">
         <is>
-          <t xml:space="preserve">Desistimiento Querella.</t>
+          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
         </is>
       </c>
       <c r="C11" s="65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c t="inlineStr" r="A12">
-        <is>
-          <t xml:space="preserve">Juzgado De Garantía De Colina</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B12">
-        <is>
-          <t xml:space="preserve">No Perseverar En El Procedimiento.</t>
-        </is>
-      </c>
-      <c r="C12" s="65">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13">
-      <c t="inlineStr" r="A13">
-        <is>
-          <t xml:space="preserve">Juzgado De Garantía De Colina</t>
-        </is>
-      </c>
-      <c t="inlineStr" r="B13">
-        <is>
-          <t xml:space="preserve">Sentencia.</t>
-        </is>
-      </c>
-      <c r="C13" s="65">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
